--- a/gatsby-site/src/data-graphql/disbursements.xlsx
+++ b/gatsby-site/src/data-graphql/disbursements.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\doi-extractives-data\gatsby-site\src\data-graphql\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malcolmj\Documents\GitHub\doi-extractives-data\gatsby-site\src\data-graphql\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6067" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6067" uniqueCount="265">
   <si>
     <t>Fiscal Year</t>
   </si>
@@ -787,9 +787,6 @@
     <t>Gunnison County</t>
   </si>
   <si>
-    <t xml:space="preserve">Land &amp; Water Conservation Fund </t>
-  </si>
-  <si>
     <t>offshore</t>
   </si>
   <si>
@@ -839,25 +836,30 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -906,7 +908,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -963,6 +965,9 @@
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1246,23 +1251,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1704"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A1292" workbookViewId="0">
+      <selection activeCell="H1303" sqref="H1303"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
-    <col min="9" max="9" width="16.88671875" customWidth="1"/>
-    <col min="10" max="26" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" customWidth="1"/>
+    <col min="10" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1282,7 +1289,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.4">
+    <row r="2" spans="1:6">
       <c r="A2" s="5">
         <v>2003</v>
       </c>
@@ -1298,7 +1305,7 @@
         <v>224798713.59999999</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.4">
+    <row r="3" spans="1:6">
       <c r="A3" s="5">
         <v>2003</v>
       </c>
@@ -1314,7 +1321,7 @@
         <v>150000000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.4">
+    <row r="4" spans="1:6">
       <c r="A4" s="5">
         <v>2003</v>
       </c>
@@ -1330,7 +1337,7 @@
         <v>898999960</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.4">
+    <row r="5" spans="1:6">
       <c r="A5" s="5">
         <v>2003</v>
       </c>
@@ -1346,7 +1353,7 @@
         <v>753373594.29999995</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.4">
+    <row r="6" spans="1:6">
       <c r="A6" s="5">
         <v>2003</v>
       </c>
@@ -1364,7 +1371,7 @@
         <v>529848.84</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.4">
+    <row r="7" spans="1:6">
       <c r="A7" s="5">
         <v>2003</v>
       </c>
@@ -1382,7 +1389,7 @@
         <v>9030501.7400000002</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.4">
+    <row r="8" spans="1:6">
       <c r="A8" s="5">
         <v>2003</v>
       </c>
@@ -1400,7 +1407,7 @@
         <v>121898.09</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.4">
+    <row r="9" spans="1:6">
       <c r="A9" s="5">
         <v>2003</v>
       </c>
@@ -1418,7 +1425,7 @@
         <v>4108480.76</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.4">
+    <row r="10" spans="1:6">
       <c r="A10" s="5">
         <v>2003</v>
       </c>
@@ -1436,7 +1443,7 @@
         <v>21837849.16</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.4">
+    <row r="11" spans="1:6">
       <c r="A11" s="5">
         <v>2003</v>
       </c>
@@ -1454,7 +1461,7 @@
         <v>53947136.920000002</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.4">
+    <row r="12" spans="1:6">
       <c r="A12" s="5">
         <v>2003</v>
       </c>
@@ -1472,7 +1479,7 @@
         <v>368710.5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.4">
+    <row r="13" spans="1:6">
       <c r="A13" s="5">
         <v>2003</v>
       </c>
@@ -1490,7 +1497,7 @@
         <v>1792864.42</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.4">
+    <row r="14" spans="1:6">
       <c r="A14" s="5">
         <v>2003</v>
       </c>
@@ -1508,7 +1515,7 @@
         <v>109312.47</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.4">
+    <row r="15" spans="1:6">
       <c r="A15" s="5">
         <v>2003</v>
       </c>
@@ -1526,7 +1533,7 @@
         <v>6379.25</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.4">
+    <row r="16" spans="1:6">
       <c r="A16" s="5">
         <v>2003</v>
       </c>
@@ -1544,7 +1551,7 @@
         <v>1823378.27</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.4">
+    <row r="17" spans="1:6">
       <c r="A17" s="5">
         <v>2003</v>
       </c>
@@ -1562,7 +1569,7 @@
         <v>50131.79</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.4">
+    <row r="18" spans="1:6">
       <c r="A18" s="5">
         <v>2003</v>
       </c>
@@ -1580,7 +1587,7 @@
         <v>1182451.3700000001</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.4">
+    <row r="19" spans="1:6">
       <c r="A19" s="5">
         <v>2003</v>
       </c>
@@ -1598,7 +1605,7 @@
         <v>430602.31</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.4">
+    <row r="20" spans="1:6">
       <c r="A20" s="5">
         <v>2003</v>
       </c>
@@ -23349,8 +23356,8 @@
       <c r="A1174" s="19">
         <v>2015</v>
       </c>
-      <c r="B1174" s="14" t="s">
-        <v>255</v>
+      <c r="B1174" s="25" t="s">
+        <v>65</v>
       </c>
       <c r="C1174" s="14" t="s">
         <v>61</v>
@@ -25899,8 +25906,8 @@
       <c r="A1308" s="19">
         <v>2016</v>
       </c>
-      <c r="B1308" s="14" t="s">
-        <v>255</v>
+      <c r="B1308" s="25" t="s">
+        <v>65</v>
       </c>
       <c r="C1308" s="14" t="s">
         <v>61</v>
@@ -28435,7 +28442,7 @@
         <v>60</v>
       </c>
       <c r="C1441" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D1441" s="6"/>
       <c r="E1441" s="19"/>
@@ -30087,7 +30094,7 @@
         <v>68</v>
       </c>
       <c r="E1528" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F1528" s="20">
         <v>3630.18</v>
@@ -30107,7 +30114,7 @@
         <v>68</v>
       </c>
       <c r="E1529" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F1529" s="20">
         <v>2600</v>
@@ -30127,7 +30134,7 @@
         <v>68</v>
       </c>
       <c r="E1530" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F1530" s="20">
         <v>2180.4</v>
@@ -30147,7 +30154,7 @@
         <v>68</v>
       </c>
       <c r="E1531" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F1531" s="20">
         <v>2397.81</v>
@@ -30167,7 +30174,7 @@
         <v>68</v>
       </c>
       <c r="E1532" s="19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F1532" s="20">
         <v>2317.1899999999996</v>
@@ -30187,7 +30194,7 @@
         <v>68</v>
       </c>
       <c r="E1533" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F1533" s="20">
         <v>2375.9499999999998</v>
@@ -30207,7 +30214,7 @@
         <v>68</v>
       </c>
       <c r="E1534" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1534" s="20">
         <v>4089.9800000000005</v>
@@ -30755,7 +30762,7 @@
         <v>166</v>
       </c>
       <c r="C1562" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D1562" s="6" t="s">
         <v>17</v>
@@ -30773,7 +30780,7 @@
         <v>166</v>
       </c>
       <c r="C1563" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D1563" s="6" t="s">
         <v>15</v>
@@ -30791,7 +30798,7 @@
         <v>166</v>
       </c>
       <c r="C1564" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D1564" s="6" t="s">
         <v>30</v>
@@ -30809,7 +30816,7 @@
         <v>166</v>
       </c>
       <c r="C1565" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D1565" s="6" t="s">
         <v>68</v>
@@ -30827,7 +30834,7 @@
         <v>166</v>
       </c>
       <c r="C1566" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D1566" s="6" t="s">
         <v>71</v>
@@ -30845,7 +30852,7 @@
         <v>166</v>
       </c>
       <c r="C1567" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D1567" s="6" t="s">
         <v>85</v>
@@ -30863,7 +30870,7 @@
         <v>166</v>
       </c>
       <c r="C1568" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D1568" s="6" t="s">
         <v>133</v>
@@ -30881,7 +30888,7 @@
         <v>166</v>
       </c>
       <c r="C1569" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D1569" s="6" t="s">
         <v>145</v>
@@ -30951,7 +30958,7 @@
       </c>
       <c r="D1573" s="6"/>
       <c r="E1573" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F1573" s="7">
         <v>1022539457.2899991</v>
@@ -30969,7 +30976,7 @@
       </c>
       <c r="D1574" s="6"/>
       <c r="E1574" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F1574" s="7">
         <v>150000000</v>
@@ -30987,7 +30994,7 @@
       </c>
       <c r="D1575" s="6"/>
       <c r="E1575" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F1575" s="7">
         <v>893887297</v>
@@ -30998,14 +31005,14 @@
         <v>2018</v>
       </c>
       <c r="B1576" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C1576" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D1576" s="6"/>
       <c r="E1576" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F1576" s="7">
         <v>76357901.970000029</v>
@@ -31023,7 +31030,7 @@
       </c>
       <c r="D1577" s="6"/>
       <c r="E1577" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F1577" s="7">
         <v>116875634.66</v>
@@ -31041,7 +31048,7 @@
       </c>
       <c r="D1578" s="6"/>
       <c r="E1578" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F1578" s="7">
         <v>163170752.99000001</v>
@@ -31059,7 +31066,7 @@
       </c>
       <c r="D1579" s="6"/>
       <c r="E1579" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F1579" s="7">
         <v>1221259347.2999983</v>
@@ -31079,7 +31086,7 @@
         <v>17</v>
       </c>
       <c r="E1580" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F1580" s="7">
         <v>1376095.1500000001</v>
@@ -31099,7 +31106,7 @@
         <v>15</v>
       </c>
       <c r="E1581" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F1581" s="7">
         <v>34370934.209999993</v>
@@ -31119,7 +31126,7 @@
         <v>25</v>
       </c>
       <c r="E1582" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F1582" s="7">
         <v>9069.7200000000012</v>
@@ -31139,7 +31146,7 @@
         <v>21</v>
       </c>
       <c r="E1583" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F1583" s="7">
         <v>854176.1599999998</v>
@@ -31159,7 +31166,7 @@
         <v>30</v>
       </c>
       <c r="E1584" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F1584" s="7">
         <v>41429712.409999996</v>
@@ -31339,7 +31346,7 @@
         <v>34</v>
       </c>
       <c r="E1593" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F1593" s="7">
         <v>112554166.89000006</v>
@@ -31399,7 +31406,7 @@
         <v>44</v>
       </c>
       <c r="E1596" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F1596" s="7">
         <v>476560.88</v>
@@ -31419,7 +31426,7 @@
         <v>55</v>
       </c>
       <c r="E1597" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F1597" s="7">
         <v>4333975.8100000005</v>
@@ -31519,7 +31526,7 @@
         <v>57</v>
       </c>
       <c r="E1602" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F1602" s="7">
         <v>76415.92</v>
@@ -31539,7 +31546,7 @@
         <v>59</v>
       </c>
       <c r="E1603" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F1603" s="7">
         <v>3693.9700000000003</v>
@@ -31559,7 +31566,7 @@
         <v>63</v>
       </c>
       <c r="E1604" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F1604" s="7">
         <v>639045.52000000025</v>
@@ -31579,7 +31586,7 @@
         <v>66</v>
       </c>
       <c r="E1605" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F1605" s="7">
         <v>120512.24</v>
@@ -31599,7 +31606,7 @@
         <v>68</v>
       </c>
       <c r="E1606" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F1606" s="7">
         <v>2153237.5400000005</v>
@@ -31619,7 +31626,7 @@
         <v>79</v>
       </c>
       <c r="E1607" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F1607" s="7">
         <v>147823.25</v>
@@ -31639,7 +31646,7 @@
         <v>81</v>
       </c>
       <c r="E1608" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F1608" s="7">
         <v>11554.300000000001</v>
@@ -31659,7 +31666,7 @@
         <v>85</v>
       </c>
       <c r="E1609" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F1609" s="7">
         <v>661429.36999999988</v>
@@ -31679,7 +31686,7 @@
         <v>83</v>
       </c>
       <c r="E1610" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F1610" s="7">
         <v>2299269.8000000003</v>
@@ -31699,7 +31706,7 @@
         <v>87</v>
       </c>
       <c r="E1611" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F1611" s="7">
         <v>25686291.770000052</v>
@@ -31719,7 +31726,7 @@
         <v>97</v>
       </c>
       <c r="E1612" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F1612" s="7">
         <v>28700.580000000005</v>
@@ -31739,7 +31746,7 @@
         <v>113</v>
       </c>
       <c r="E1613" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F1613" s="7">
         <v>4066416.8100000015</v>
@@ -31999,7 +32006,7 @@
         <v>105</v>
       </c>
       <c r="E1626" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F1626" s="7">
         <v>634977556.71000016</v>
@@ -32059,7 +32066,7 @@
         <v>95</v>
       </c>
       <c r="E1629" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F1629" s="7">
         <v>53223774.739999957</v>
@@ -32079,7 +32086,7 @@
         <v>117</v>
       </c>
       <c r="E1630" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F1630" s="7">
         <v>862521.52000000025</v>
@@ -32099,7 +32106,7 @@
         <v>119</v>
       </c>
       <c r="E1631" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F1631" s="7">
         <v>7867081.6499999939</v>
@@ -32119,7 +32126,7 @@
         <v>123</v>
       </c>
       <c r="E1632" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F1632" s="7">
         <v>47141.71</v>
@@ -32179,7 +32186,7 @@
         <v>125</v>
       </c>
       <c r="E1635" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F1635" s="7">
         <v>9880.119999999999</v>
@@ -32199,7 +32206,7 @@
         <v>135</v>
       </c>
       <c r="E1636" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F1636" s="7">
         <v>518.37</v>
@@ -32219,7 +32226,7 @@
         <v>137</v>
       </c>
       <c r="E1637" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F1637" s="7">
         <v>564521.81999999983</v>
@@ -32239,7 +32246,7 @@
         <v>145</v>
       </c>
       <c r="E1638" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F1638" s="7">
         <v>4847388.660000002</v>
@@ -32259,7 +32266,7 @@
         <v>149</v>
       </c>
       <c r="E1639" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F1639" s="7">
         <v>76015357.680000067</v>
@@ -32359,7 +32366,7 @@
         <v>151</v>
       </c>
       <c r="E1644" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F1644" s="7">
         <v>39194.81</v>
@@ -32379,7 +32386,7 @@
         <v>157</v>
       </c>
       <c r="E1645" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F1645" s="7">
         <v>7999.7800000000007</v>
@@ -32419,7 +32426,7 @@
         <v>161</v>
       </c>
       <c r="E1647" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F1647" s="7">
         <v>470583.49000000017</v>
@@ -32439,7 +32446,7 @@
         <v>159</v>
       </c>
       <c r="E1648" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F1648" s="7">
         <v>233.5</v>
@@ -32459,7 +32466,7 @@
         <v>163</v>
       </c>
       <c r="E1649" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F1649" s="7">
         <v>563955987.69999945</v>
@@ -32717,7 +32724,7 @@
         <v>68</v>
       </c>
       <c r="E1662" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F1662" s="7">
         <v>781611.41</v>
@@ -32737,7 +32744,7 @@
         <v>68</v>
       </c>
       <c r="E1663" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F1663" s="7">
         <v>594151.57999999996</v>
@@ -32757,7 +32764,7 @@
         <v>68</v>
       </c>
       <c r="E1664" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F1664" s="7">
         <v>517254.38000000006</v>
@@ -32777,7 +32784,7 @@
         <v>68</v>
       </c>
       <c r="E1665" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F1665" s="7">
         <v>559530.88</v>
@@ -32797,7 +32804,7 @@
         <v>68</v>
       </c>
       <c r="E1666" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F1666" s="7">
         <v>616852.85</v>
@@ -32817,7 +32824,7 @@
         <v>68</v>
       </c>
       <c r="E1667" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F1667" s="7">
         <v>719952.25</v>
@@ -32837,7 +32844,7 @@
         <v>68</v>
       </c>
       <c r="E1668" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F1668" s="7">
         <v>912548.87</v>
@@ -33391,7 +33398,7 @@
         <v>17</v>
       </c>
       <c r="E1696" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F1696" s="7">
         <v>2384757.73</v>
@@ -33411,7 +33418,7 @@
         <v>15</v>
       </c>
       <c r="E1697" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F1697" s="7">
         <v>1509923.7600000002</v>
@@ -33431,7 +33438,7 @@
         <v>30</v>
       </c>
       <c r="E1698" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F1698" s="7">
         <v>1363323.5800000008</v>
@@ -33451,7 +33458,7 @@
         <v>68</v>
       </c>
       <c r="E1699" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F1699" s="7">
         <v>6052631.0099999998</v>
@@ -33471,7 +33478,7 @@
         <v>85</v>
       </c>
       <c r="E1700" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F1700" s="7">
         <v>259421.05999999994</v>
@@ -33491,7 +33498,7 @@
         <v>145</v>
       </c>
       <c r="E1701" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F1701" s="7">
         <v>4634850.8399999961</v>
@@ -33509,7 +33516,7 @@
       </c>
       <c r="D1702" s="6"/>
       <c r="E1702" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F1702" s="7">
         <v>2789421770.9399981</v>
@@ -33527,7 +33534,7 @@
       </c>
       <c r="D1703" s="6"/>
       <c r="E1703" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F1703" s="7">
         <v>411828484.52999961</v>
@@ -33545,7 +33552,7 @@
       </c>
       <c r="D1704" s="6"/>
       <c r="E1704" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F1704" s="7">
         <v>309064093.10999995</v>
@@ -33563,13 +33570,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.4">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -33577,7 +33584,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27.6">
+    <row r="2" spans="1:2" ht="30">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -33585,7 +33592,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.4">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -33593,7 +33600,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27.6">
+    <row r="4" spans="1:2" ht="30">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -33601,7 +33608,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.4">
+    <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -33609,7 +33616,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.4">
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -33617,7 +33624,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="27.6">
+    <row r="7" spans="1:2" ht="30">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -33625,7 +33632,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.4">
+    <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
@@ -33633,7 +33640,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.4">
+    <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
@@ -33641,7 +33648,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.4">
+    <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
@@ -33649,7 +33656,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.4">
+    <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -33657,7 +33664,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="14.4">
+    <row r="12" spans="1:2">
       <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
@@ -33665,7 +33672,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="14.4">
+    <row r="13" spans="1:2">
       <c r="A13" s="4" t="s">
         <v>31</v>
       </c>
@@ -33673,7 +33680,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="14.4">
+    <row r="14" spans="1:2">
       <c r="A14" s="4" t="s">
         <v>33</v>
       </c>
@@ -33681,7 +33688,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="14.4">
+    <row r="15" spans="1:2">
       <c r="A15" s="4" t="s">
         <v>35</v>
       </c>
@@ -33689,7 +33696,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="14.4">
+    <row r="16" spans="1:2">
       <c r="A16" s="4" t="s">
         <v>37</v>
       </c>
@@ -33697,7 +33704,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="14.4">
+    <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
         <v>39</v>
       </c>
@@ -33705,7 +33712,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.4">
+    <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
         <v>41</v>
       </c>
@@ -33713,7 +33720,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.4">
+    <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
         <v>43</v>
       </c>
@@ -33721,7 +33728,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="14.4">
+    <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
         <v>45</v>
       </c>
